--- a/biology/Zoologie/Azanus/Azanus.xlsx
+++ b/biology/Zoologie/Azanus/Azanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Azanus est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Azanus a été décrit par l'entomologiste britannique Frederic Moore en 1881, avec pour espèce type Papilio ubaldus Stoll, [1782][1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Azanus a été décrit par l'entomologiste britannique Frederic Moore en 1881, avec pour espèce type Papilio ubaldus Stoll, .
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Azanus sont appelés Babul Blues en anglais[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Azanus sont appelés Babul Blues en anglais.
 </t>
         </is>
       </c>
@@ -573,16 +589,18 @@
           <t>Liste des espèces et répartitions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Azanus est présent en Afrique, à Madagascar et du Moyen-Orient à l'Asie du Sud-Est. Il comporte dix espèces[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Azanus est présent en Afrique, à Madagascar et du Moyen-Orient à l'Asie du Sud-Est. Il comporte dix espèces :
 Sous-genre Azanus Kemal, 2004
 Azanus urios Riley &amp; Godfrey, 1921 — en Indochine.
-Azanus ubaldus (Stoll, [1782]) — l'Azuré du seyal — en Afrique, au Moyen-Orient et en Asie du Sud.
+Azanus ubaldus (Stoll, ) — l'Azuré du seyal — en Afrique, au Moyen-Orient et en Asie du Sud.
 Azanus soalalicus (Karsch, 1900) — à Madagascar.
 Azanus natalensis (Trimen &amp; Bowker, 1887) — en Afrique.
 Azanus jesous (Guérin-Méneville, 1849) — l'Azuré du mimosa — en Afrique et du Moyen-Orient à la Birmanie.
-Azanus sitalces (Mabille, [1900]) — à Madagascar et à Mayotte.
+Azanus sitalces (Mabille, ) — à Madagascar et à Mayotte.
 Azanus moriqua (Wallengren, 1857) — en Afrique et en Arabie.
 Azanus mirza (Plötz, 1880) — en Afrique.
 Azanus uranus Butler, 1886 — au Baloutchistan et en Inde.
@@ -623,7 +641,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes hôtes des chenilles sont des Acacias.
 </t>
